--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD824B1-9BAA-1D49-B255-9DBDE68AD7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315CB7DD-1C5E-084E-B43F-56D4D926C975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="27240" windowHeight="15420" xr2:uid="{E652ED68-B67C-0A44-A408-F6CEC012E16E}"/>
+    <workbookView xWindow="37640" yWindow="900" windowWidth="27240" windowHeight="15420" xr2:uid="{E652ED68-B67C-0A44-A408-F6CEC012E16E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -37,22 +37,6 @@
   </si>
   <si>
     <t>Occurrence</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                                             •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       •“We couldn’t afford to eat balanced meals.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Often true
-•	Sometimes true
-•	Never true
-•	Don’t know </t>
-  </si>
-  <si>
-    <t>"U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
-September 2012"</t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
@@ -63,59 +47,81 @@
 • Don’t know </t>
   </si>
   <si>
-    <t>U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
-September 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Almost every month
-•	Some months but not every month
-•	Only 1 or 2 months
-•	Don’t know </t>
-  </si>
-  <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t xml:space="preserve">•	Yes
-•	No
-•	Don’t know </t>
-  </si>
-  <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic.                                                                             •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       •“We couldn’t afford to eat balanced meals.”</t>
-  </si>
-  <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t xml:space="preserve">• Almost every month
-• Some months but not every month
-• Only 1 or 2 months
-• Don’t know </t>
-  </si>
-  <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>33, 35, 39</t>
-  </si>
-  <si>
-    <t>[Display this question if "Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food?" = Yes]        How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food?" = Yes] How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
+    <t>33, 35, 39, 41</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>https://www.ers.usda.gov/media/8282/short2012.pdf</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified 
+"U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
+September 2012"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Often true
+•Sometimes true
+•Never true
+•Don’t know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Almost every month
+•Some months but not every month
+•Only 1 or 2 months
+•Don’t know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes
+•No
+•Don’t know </t>
+  </si>
+  <si>
+    <t>[Display this question if "Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food?" = Yes]        
+How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food?" = Yes]
+How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic
+                                                                   •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       </t>
+  </si>
+  <si>
+    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic 
+                                                                                                                                                                                              •“We couldn’t afford to eat balanced meals.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic.
+                                                                        •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       </t>
+  </si>
+  <si>
+    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic.                                                                             
+	                                                                                                                       •“We couldn’t afford to eat balanced meals.”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +139,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,25 +169,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,19 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0407B19D-51E8-394B-BE42-88A02C105FAA}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="24.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -512,163 +531,220 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9BA61D7A-B61D-D749-A9DB-762EA1E0ED05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1FCA76-0C97-FB4E-8536-B4E36B158F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733955E8-B4F2-D345-8ABD-9858892587F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42440" yWindow="-4200" windowWidth="22280" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17340" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t xml:space="preserve">19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61 </t>
+    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733955E8-B4F2-D345-8ABD-9858892587F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86FDD706-25F3-0D4E-8F63-F4E1E037B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17340" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17340" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65</t>
+    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65, 73</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86FDD706-25F3-0D4E-8F63-F4E1E037B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4095204C-63BA-C34C-BB84-9A2C447E2254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17340" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="500" windowWidth="17340" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65, 73</t>
+    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4095204C-63BA-C34C-BB84-9A2C447E2254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D72F421-8D0F-804E-ACF4-05F1ABFD3E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="500" windowWidth="17340" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81</t>
+    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81, 85</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D72F421-8D0F-804E-ACF4-05F1ABFD3E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01334531-0772-4342-B215-945363185B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="500" windowWidth="17340" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17340" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -34,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic
@@ -64,6 +75,9 @@
     </r>
   </si>
   <si>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/29/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/15/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 11/21/2021-11/24/2021 01/03/2022-01/24/2022 93</t>
+  </si>
+  <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic 
                                                                                                                                                                                               •“We couldn’t afford to eat balanced meals.”</t>
   </si>
@@ -100,10 +114,42 @@
     <t>Prior to the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
+                                                                        •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       </t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
+                                                                       	•“We couldn’t afford to eat balanced meals.”                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t>How often did this happen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Every week
+• Some weeks 
+• Don't know
+</t>
+  </si>
+  <si>
+    <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>In the past month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic.
                                                                         •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       </t>
   </si>
   <si>
+    <t xml:space="preserve">08/10/2020-08/13/2020 08/24/2020-08/27/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/29/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/15/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 11/21/2021-11/24/2021 01/03/2022-01/24/2022 </t>
+  </si>
+  <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic.                                                                             
 	                                                                                                                       •“We couldn’t afford to eat balanced meals.”</t>
   </si>
@@ -119,16 +165,13 @@
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81, 85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1367,23 +1410,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="330.75">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1414,12 +1457,12 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="330.75">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1428,83 +1471,83 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="330.75">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="330.75">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="330.75">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="330.75">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="157.5">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1513,15 +1556,15 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="141.75">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1530,78 +1573,176 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="110.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="63">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="110.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="110.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="315">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="315">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="315">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="315">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="315">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="315">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjfGatiOCrn2M/dDl0HjF6XmFSGww=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgQVgL2EQEIiAkZ+AWAfD6ztTa+xA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +104,7 @@
 “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
@@ -118,7 +118,7 @@
     <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>How often did this happen?</t>
@@ -130,7 +130,7 @@
 </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjvwHmn1h5xCizYOk6LBTNO4YODUA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="yMjL+w3zOAGJlHmCY/jlM807YuMaN42jbGLRiFYaeFE="/>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +104,7 @@
 “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
@@ -118,7 +118,7 @@
     <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>How often did this happen?</t>
@@ -138,13 +138,13 @@
 </t>
   </si>
   <si>
-    <t>03/09/2023-03/15/2023</t>
+    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In the past month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -104,7 +104,7 @@
 “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
@@ -118,7 +118,7 @@
     <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>How often did this happen?</t>
@@ -138,13 +138,13 @@
 </t>
   </si>
   <si>
-    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>In the past month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -104,7 +104,7 @@
 “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
@@ -118,7 +118,7 @@
     <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>How often did this happen?</t>
@@ -138,13 +138,13 @@
 </t>
   </si>
   <si>
-    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>In the past month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -104,7 +104,7 @@
 “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
@@ -118,7 +118,7 @@
     <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>How often did this happen?</t>
@@ -138,13 +138,13 @@
 </t>
   </si>
   <si>
-    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>In the past month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -104,7 +104,7 @@
 “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
@@ -118,7 +118,7 @@
     <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>How often did this happen?</t>
@@ -138,13 +138,13 @@
 </t>
   </si>
   <si>
-    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>In the past month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>

--- a/_site/Data/FoodInsecurityModule.xlsx
+++ b/_site/Data/FoodInsecurityModule.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="yMjL+w3zOAGJlHmCY/jlM807YuMaN42jbGLRiFYaeFE="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjvwHmn1h5xCizYOk6LBTNO4YODUA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -104,7 +104,7 @@
 “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the past month.
@@ -118,7 +118,7 @@
     <t xml:space="preserve">In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022  09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>How often did this happen?</t>
@@ -133,12 +133,16 @@
     <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
+    <t>[Display this question if "In the past month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food?" = Yes]
+How often did this happen?</t>
+  </si>
+  <si>
     <t xml:space="preserve">• 1-2 days
 • 3 or more days
 </t>
   </si>
   <si>
-    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>In the past month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
@@ -148,6 +152,9 @@
   </si>
   <si>
     <t>In the past month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic.
@@ -966,15 +973,15 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1000,7 +1007,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1012,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1038,7 +1045,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -1050,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1076,7 +1083,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
@@ -1088,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1114,7 +1121,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
@@ -1126,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1152,7 +1159,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -1164,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1190,7 +1197,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>15</v>
@@ -1202,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1228,7 +1235,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -1240,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1266,7 +1273,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -1278,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
